--- a/biology/Médecine/Ventilation_pulmonaire/Ventilation_pulmonaire.xlsx
+++ b/biology/Médecine/Ventilation_pulmonaire/Ventilation_pulmonaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ventilation pulmonaire, ou respiration dans le langage courant, est le renouvellement de l'air contenu dans les poumons par l'action des muscles respiratoires dont le principal est le diaphragme. Elle comprend deux temps : l'entrée d'air dans les poumons lors de l'inspiration et la sortie d'air lors de l'expiration.
 En biologie le terme « respiration » désignant alors la production d'énergie par les cellules, la dénomination de ventilation pulmonaire est préférée en médecine pour éviter toute confusion.
@@ -512,7 +524,9 @@
           <t>Modélisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On divise de façon schématique l'appareil respiratoire en voies aériennes de conduction, que sont la trachée, les bronches, et les bronchioles (de la bronche souche à la bronchiole terminale) et en secteur alvéolaire (c'est-à-dire toute partie de l'appareil respiratoire située après une bronchiole sensitive : bronchioles respiratoires, canaux alvéolaires, alvéoles et lobules).
 La physiologie pulmonaire utilise de façon permanente un certain nombre de principes physiques qui sous-tendent la pratique clinique :
@@ -592,7 +606,9 @@
           <t>Mécanismes respiratoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette ventilation homogène justifie par ailleurs la modélisation mono-alvéolaire qui considère le poumon comme une alvéole géante qui se gonfle et se dégonfle à chaque cycle ventilatoire. Cette représentation permet de comprendre la notion d'espace mort, ou volume mort, qui est l'ensemble des éléments de l'arbre respiratoire remplis d'air mais ne participant pas activement aux échanges gazeux air/sang.
 Anatomiquement, il s'agit des voies aériennes supérieures de conduction, soit 150 mL environ chez l'adulte.
@@ -631,7 +647,9 @@
           <t>Échanges gazeux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de l'inspiration, l'air ambiant pénètre dans les poumons, et le dioxygène (O2, gaz qui compose 21 % de l'air) passe dans le sang et se fixe aux globules rouges. Le dioxyde de carbone (CO2) dissous dans le plasma sanguin passe lui dans l'air contenu dans les poumons. C'est cet air appauvri en dioxygène et enrichi en dioxyde de carbone qui est expiré.
 </t>
@@ -662,7 +680,9 @@
           <t>Contrôle de la ventilation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois types de structures sont impliquées dans le contrôle de la ventilation pulmonaire : les centres de contrôle, les récepteurs (chémorécepteurs centraux et périphériques qui renseignent le système respiratoire sur sa finalité et mécanorécepteurs, situés dans le parenchyme, les bronches et les muscles ventilatoires, qui le renseignent sur sa position) et les effecteurs (les muscles respiratoires).
 </t>
@@ -693,13 +713,15 @@
           <t>Capacité pulmonaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La capacité pulmonaire est le volume d'air pouvant être inspiré. Elle se mesure avec un spiromètre. En général, on mesure trois types de respiration :
 la respiration « normale », calme, qui donne le volume utilisé au repos d'environ 0,5 litre ;
 la respiration forcée, qui donne la capacité maximale (capacité vitale) d'environ 5 litres ;
 une expiration brutale, qui donne des renseignements sur les bronchioles, notamment dans le cadre d'une recherche d'asthme.
-On peut aussi estimer la capacité respiratoire par des tests d'effort, comme le test navette de Luc Léger [1].
+On peut aussi estimer la capacité respiratoire par des tests d'effort, comme le test navette de Luc Léger .
 Même lorsque l'on expire complètement, il reste de l'air dans les poumons (volume résiduel) environ 1,5 litre.
 </t>
         </is>
